--- a/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.28829711751502</v>
+        <v>16.81429625698297</v>
       </c>
       <c r="C2">
-        <v>17.40127578636656</v>
+        <v>9.745568684978592</v>
       </c>
       <c r="D2">
-        <v>3.119260891170519</v>
+        <v>3.97469522030314</v>
       </c>
       <c r="E2">
-        <v>8.993990845774311</v>
+        <v>9.332441021818072</v>
       </c>
       <c r="F2">
-        <v>42.89794233267946</v>
+        <v>39.57689395249427</v>
       </c>
       <c r="G2">
-        <v>2.093987516607634</v>
+        <v>2.133793188014092</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.839045103328709</v>
+        <v>6.83203681211859</v>
       </c>
       <c r="K2">
-        <v>21.20297715851125</v>
+        <v>14.78937007511659</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.08276619782548</v>
+        <v>16.44706187252022</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72659314978546</v>
+        <v>15.855097425054</v>
       </c>
       <c r="C3">
-        <v>16.18462082818916</v>
+        <v>9.141031858644903</v>
       </c>
       <c r="D3">
-        <v>3.019997516169505</v>
+        <v>3.729316689932261</v>
       </c>
       <c r="E3">
-        <v>8.637488702804591</v>
+        <v>8.93722349401968</v>
       </c>
       <c r="F3">
-        <v>41.18629448303687</v>
+        <v>38.51050983413236</v>
       </c>
       <c r="G3">
-        <v>2.106528181337593</v>
+        <v>2.143039538188172</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.70840246872115</v>
+        <v>6.718894947762784</v>
       </c>
       <c r="K3">
-        <v>19.88557593561321</v>
+        <v>14.02146767198766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.2840138796821</v>
+        <v>16.56291004424953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.73586565417249</v>
+        <v>15.24929403034001</v>
       </c>
       <c r="C4">
-        <v>15.42729515735375</v>
+        <v>8.757393562425301</v>
       </c>
       <c r="D4">
-        <v>2.958699557220129</v>
+        <v>3.570770066534699</v>
       </c>
       <c r="E4">
-        <v>8.419225052660922</v>
+        <v>8.692906789854812</v>
       </c>
       <c r="F4">
-        <v>40.15004370771326</v>
+        <v>37.87265139843367</v>
       </c>
       <c r="G4">
-        <v>2.11437560214139</v>
+        <v>2.148859267423142</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.632570532517961</v>
+        <v>6.652943971560397</v>
       </c>
       <c r="K4">
-        <v>19.05275675784676</v>
+        <v>13.54009308399422</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.4124784318893</v>
+        <v>16.63920845216191</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32427694888495</v>
+        <v>14.99841854737441</v>
       </c>
       <c r="C5">
-        <v>15.11173390922249</v>
+        <v>8.598027769238522</v>
       </c>
       <c r="D5">
-        <v>2.933665372133017</v>
+        <v>3.504176857872511</v>
       </c>
       <c r="E5">
-        <v>8.330519950670093</v>
+        <v>8.593057110198631</v>
       </c>
       <c r="F5">
-        <v>39.73167896584068</v>
+        <v>37.61708994984846</v>
       </c>
       <c r="G5">
-        <v>2.117614302793001</v>
+        <v>2.151268507820989</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.602746359166399</v>
+        <v>6.626948006683034</v>
       </c>
       <c r="K5">
-        <v>18.7075271002988</v>
+        <v>13.34166499808086</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.46602221703827</v>
+        <v>16.67155636456122</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25546440442307</v>
+        <v>14.95652687363689</v>
       </c>
       <c r="C6">
-        <v>15.05891714853783</v>
+        <v>8.571385837847382</v>
       </c>
       <c r="D6">
-        <v>2.929506191868802</v>
+        <v>3.492999299225715</v>
       </c>
       <c r="E6">
-        <v>8.315807620818347</v>
+        <v>8.576463750936778</v>
       </c>
       <c r="F6">
-        <v>39.66245383695622</v>
+        <v>37.57492175056636</v>
       </c>
       <c r="G6">
-        <v>2.118154654862743</v>
+        <v>2.151670885959761</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.597858492377175</v>
+        <v>6.622684353759036</v>
       </c>
       <c r="K6">
-        <v>18.64985530655371</v>
+        <v>13.30858675979041</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.47498422180802</v>
+        <v>16.67700235436374</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73034638442963</v>
+        <v>15.24592650479594</v>
       </c>
       <c r="C7">
-        <v>15.42306745368217</v>
+        <v>8.755256409035484</v>
       </c>
       <c r="D7">
-        <v>2.958362112871474</v>
+        <v>3.569880000382866</v>
       </c>
       <c r="E7">
-        <v>8.418027658977575</v>
+        <v>8.691561170768441</v>
       </c>
       <c r="F7">
-        <v>40.14438530735201</v>
+        <v>37.86918694720454</v>
       </c>
       <c r="G7">
-        <v>2.114419110426656</v>
+        <v>2.148891604481888</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.63216397997001</v>
+        <v>6.652589826867514</v>
       </c>
       <c r="K7">
-        <v>19.04812426752641</v>
+        <v>13.53742585564447</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.41319575509789</v>
+        <v>16.63963967778656</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.75648747404081</v>
+        <v>16.48718294014461</v>
       </c>
       <c r="C8">
-        <v>16.97618525380905</v>
+        <v>9.539757981471549</v>
       </c>
       <c r="D8">
-        <v>3.085126324804062</v>
+        <v>3.891722380458297</v>
       </c>
       <c r="E8">
-        <v>8.870981571266148</v>
+        <v>9.196583251866358</v>
       </c>
       <c r="F8">
-        <v>42.30482280580607</v>
+        <v>39.20576542061566</v>
       </c>
       <c r="G8">
-        <v>2.098283310474303</v>
+        <v>2.136952914024284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.793074741172064</v>
+        <v>6.792292239470286</v>
       </c>
       <c r="K8">
-        <v>20.75377829000067</v>
+        <v>14.52676572144118</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.15111462230978</v>
+        <v>16.48590629678591</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.67757691921566</v>
+        <v>18.78033332411322</v>
       </c>
       <c r="C9">
-        <v>19.92204568332882</v>
+        <v>10.99430101647069</v>
       </c>
       <c r="D9">
-        <v>3.329670031435403</v>
+        <v>4.460613536183893</v>
       </c>
       <c r="E9">
-        <v>9.761604498580162</v>
+        <v>10.16922613602217</v>
       </c>
       <c r="F9">
-        <v>46.65282410716588</v>
+        <v>41.9563862797627</v>
       </c>
       <c r="G9">
-        <v>2.06762116947312</v>
+        <v>2.114581161107219</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.144622527362045</v>
+        <v>7.094407735763561</v>
       </c>
       <c r="K9">
-        <v>24.25859771309661</v>
+        <v>16.38114675023159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.67819203897052</v>
+        <v>16.22763271729942</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.44363519489432</v>
+        <v>20.39494382242559</v>
       </c>
       <c r="C10">
-        <v>21.93972160534792</v>
+        <v>12.07215957191802</v>
       </c>
       <c r="D10">
-        <v>3.505492261644776</v>
+        <v>4.84134219410943</v>
       </c>
       <c r="E10">
-        <v>10.41546868248339</v>
+        <v>10.8683233358955</v>
       </c>
       <c r="F10">
-        <v>49.91603052465295</v>
+        <v>44.05203612684138</v>
       </c>
       <c r="G10">
-        <v>2.045390256601907</v>
+        <v>2.098640857223065</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.42690790819706</v>
+        <v>7.333962710415111</v>
       </c>
       <c r="K10">
-        <v>26.70886757168232</v>
+        <v>17.77558267415639</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.35959669944335</v>
+        <v>16.06766687797458</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66218261157952</v>
+        <v>21.17691707941857</v>
       </c>
       <c r="C11">
-        <v>22.82947916537937</v>
+        <v>12.54404490270062</v>
       </c>
       <c r="D11">
-        <v>3.584448761286877</v>
+        <v>5.006683196972695</v>
       </c>
       <c r="E11">
-        <v>10.71292211879568</v>
+        <v>11.1824155936538</v>
       </c>
       <c r="F11">
-        <v>51.41832715652951</v>
+        <v>45.02143454455378</v>
       </c>
       <c r="G11">
-        <v>2.035261621091916</v>
+        <v>2.091462584242553</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.561137751781233</v>
+        <v>7.446896496927626</v>
       </c>
       <c r="K11">
-        <v>27.78709996073015</v>
+        <v>18.46714108818847</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.2221026920998</v>
+        <v>16.00226018957864</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.1183607143637</v>
+        <v>21.46865825431167</v>
       </c>
       <c r="C12">
-        <v>23.1627449009252</v>
+        <v>12.72019339945379</v>
       </c>
       <c r="D12">
-        <v>3.614190734352134</v>
+        <v>5.068186413884856</v>
       </c>
       <c r="E12">
-        <v>10.82560634117775</v>
+        <v>11.30076772444834</v>
       </c>
       <c r="F12">
-        <v>51.99021942192434</v>
+        <v>45.39087180977288</v>
       </c>
       <c r="G12">
-        <v>2.03141604820184</v>
+        <v>2.088751658071682</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.612867976668582</v>
+        <v>7.490246099022355</v>
       </c>
       <c r="K12">
-        <v>28.19060363188924</v>
+        <v>18.72497882953333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.17123627759019</v>
+        <v>15.97863827043156</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.02034033943525</v>
+        <v>21.40601864612279</v>
       </c>
       <c r="C13">
-        <v>23.09112655576024</v>
+        <v>12.68236794847939</v>
       </c>
       <c r="D13">
-        <v>3.607792348567743</v>
+        <v>5.054989486945973</v>
       </c>
       <c r="E13">
-        <v>10.80133472399864</v>
+        <v>11.27530475456159</v>
       </c>
       <c r="F13">
-        <v>51.86690951402591</v>
+        <v>45.31120134384724</v>
       </c>
       <c r="G13">
-        <v>2.032244847344069</v>
+        <v>2.089335232852639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.601685722003122</v>
+        <v>7.480883724788585</v>
       </c>
       <c r="K13">
-        <v>28.10390765076164</v>
+        <v>18.66962591176652</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.18213552181604</v>
+        <v>15.98367318445827</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69981515096417</v>
+        <v>21.20100558944934</v>
       </c>
       <c r="C14">
-        <v>22.85696823801033</v>
+        <v>12.55858706561886</v>
       </c>
       <c r="D14">
-        <v>3.586898835189717</v>
+        <v>5.011765170561583</v>
       </c>
       <c r="E14">
-        <v>10.72219144661157</v>
+        <v>11.1921643299417</v>
       </c>
       <c r="F14">
-        <v>51.46531366201742</v>
+        <v>45.05178093303157</v>
       </c>
       <c r="G14">
-        <v>2.034945494724432</v>
+        <v>2.091239427246965</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.565375164190792</v>
+        <v>7.450451088295599</v>
       </c>
       <c r="K14">
-        <v>27.82038989032322</v>
+        <v>18.48843358405576</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.21789298746098</v>
+        <v>16.00029328829623</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.50281426205093</v>
+        <v>21.07486400935965</v>
       </c>
       <c r="C15">
-        <v>22.71307427355504</v>
+        <v>12.48243981598025</v>
       </c>
       <c r="D15">
-        <v>3.574080303402796</v>
+        <v>4.98514545464451</v>
       </c>
       <c r="E15">
-        <v>10.6737216309003</v>
+        <v>11.14116155760397</v>
       </c>
       <c r="F15">
-        <v>51.21973220058977</v>
+        <v>44.89318608555759</v>
       </c>
       <c r="G15">
-        <v>2.03659815347672</v>
+        <v>2.092406655694889</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.543253301619878</v>
+        <v>7.431886796752939</v>
       </c>
       <c r="K15">
-        <v>27.64611617617054</v>
+        <v>18.37692674681745</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.23995606068041</v>
+        <v>16.01062563280551</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.36323757980276</v>
+        <v>20.34321956142963</v>
       </c>
       <c r="C16">
-        <v>21.88103903199384</v>
+        <v>12.04095853617496</v>
       </c>
       <c r="D16">
-        <v>3.500310673379519</v>
+        <v>4.830380492946243</v>
       </c>
       <c r="E16">
-        <v>10.3960325851832</v>
+        <v>10.84771517010842</v>
       </c>
       <c r="F16">
-        <v>49.81824434085414</v>
+        <v>43.98900896532292</v>
       </c>
       <c r="G16">
-        <v>2.046051229713241</v>
+        <v>2.099111180636849</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.41825784057608</v>
+        <v>7.326663040207472</v>
       </c>
       <c r="K16">
-        <v>26.63770562225449</v>
+        <v>17.72981351648881</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.36874237291318</v>
+        <v>16.07209673899182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.65426328962749</v>
+        <v>19.91756252921753</v>
       </c>
       <c r="C17">
-        <v>21.36366305795849</v>
+        <v>11.76547296565316</v>
       </c>
       <c r="D17">
-        <v>3.454784012659721</v>
+        <v>4.733439844171965</v>
       </c>
       <c r="E17">
-        <v>10.2257026181058</v>
+        <v>10.66666595536166</v>
       </c>
       <c r="F17">
-        <v>48.96330294953905</v>
+        <v>43.43845174785042</v>
       </c>
       <c r="G17">
-        <v>2.051841172291804</v>
+        <v>2.103240747091223</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.343107864984807</v>
+        <v>7.263134723536796</v>
       </c>
       <c r="K17">
-        <v>26.01004233849233</v>
+        <v>17.32546371168016</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.44973705373557</v>
+        <v>16.11175182647335</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.24270698394155</v>
+        <v>19.68026263264019</v>
       </c>
       <c r="C18">
-        <v>21.06341187990077</v>
+        <v>11.60527813864827</v>
       </c>
       <c r="D18">
-        <v>3.428501952513891</v>
+        <v>4.676941358731761</v>
       </c>
       <c r="E18">
-        <v>10.1277295341448</v>
+        <v>10.56216131898781</v>
       </c>
       <c r="F18">
-        <v>48.47320645267548</v>
+        <v>43.12329387954718</v>
       </c>
       <c r="G18">
-        <v>2.055170451356584</v>
+        <v>2.105623049636614</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.30042648657604</v>
+        <v>7.226966432584861</v>
       </c>
       <c r="K18">
-        <v>25.64557026211522</v>
+        <v>17.11626078096889</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.49701366920632</v>
+        <v>16.13524753085382</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.10270048853923</v>
+        <v>19.59958953212584</v>
       </c>
       <c r="C19">
-        <v>20.96128302247614</v>
+        <v>11.55073658373958</v>
       </c>
       <c r="D19">
-        <v>3.419587139004731</v>
+        <v>4.657684106538441</v>
       </c>
       <c r="E19">
-        <v>10.09455605362041</v>
+        <v>10.52671533900852</v>
       </c>
       <c r="F19">
-        <v>48.30754002779499</v>
+        <v>43.0168456432488</v>
       </c>
       <c r="G19">
-        <v>2.056297745282589</v>
+        <v>2.106430964439581</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.286066841164502</v>
+        <v>7.214783905004812</v>
       </c>
       <c r="K19">
-        <v>25.5215604052463</v>
+        <v>17.05021809772888</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.51313582860945</v>
+        <v>16.14331830272306</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.73012226573146</v>
+        <v>19.96132589487733</v>
       </c>
       <c r="C20">
-        <v>21.41901246603554</v>
+        <v>11.7949785233538</v>
       </c>
       <c r="D20">
-        <v>3.459640460795085</v>
+        <v>4.743835864398643</v>
       </c>
       <c r="E20">
-        <v>10.24383470882064</v>
+        <v>10.68597746794369</v>
       </c>
       <c r="F20">
-        <v>49.05414026765559</v>
+        <v>43.4969033378696</v>
       </c>
       <c r="G20">
-        <v>2.05122497344403</v>
+        <v>2.102800436313169</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.351051105094691</v>
+        <v>7.269858879007586</v>
       </c>
       <c r="K20">
-        <v>26.07721298989164</v>
+        <v>17.36879159219396</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.44104270431015</v>
+        <v>16.10745875900367</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.79409985184806</v>
+        <v>21.26134038639196</v>
       </c>
       <c r="C21">
-        <v>22.92584240488515</v>
+        <v>12.59501262854919</v>
       </c>
       <c r="D21">
-        <v>3.593040079287813</v>
+        <v>5.024491077465438</v>
       </c>
       <c r="E21">
-        <v>10.7454360104704</v>
+        <v>11.21660071683733</v>
       </c>
       <c r="F21">
-        <v>51.58318610230005</v>
+        <v>45.12791474173522</v>
       </c>
       <c r="G21">
-        <v>2.034152591177067</v>
+        <v>2.090679947307572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.5760154354254</v>
+        <v>7.459373899434627</v>
       </c>
       <c r="K21">
-        <v>27.90379235991776</v>
+        <v>18.54176250179361</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.20735640997309</v>
+        <v>15.99537970159647</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.11264791146733</v>
+        <v>22.10252686361722</v>
       </c>
       <c r="C22">
-        <v>23.88949689166563</v>
+        <v>13.10311273687778</v>
       </c>
       <c r="D22">
-        <v>3.679308256174239</v>
+        <v>5.201470623389103</v>
       </c>
       <c r="E22">
-        <v>11.07356861632723</v>
+        <v>11.55997200541766</v>
       </c>
       <c r="F22">
-        <v>53.25392534480471</v>
+        <v>46.20761314000529</v>
       </c>
       <c r="G22">
-        <v>2.022931480141637</v>
+        <v>2.082799496012829</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.72833183273742</v>
+        <v>7.586647657464943</v>
       </c>
       <c r="K22">
-        <v>29.06984831929364</v>
+        <v>19.28490084582166</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.0617043169847</v>
+        <v>15.92885924100698</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.41152044156854</v>
+        <v>21.6558424248162</v>
       </c>
       <c r="C23">
-        <v>23.37696998428009</v>
+        <v>12.8332418615326</v>
       </c>
       <c r="D23">
-        <v>3.633350792540735</v>
+        <v>5.10759499744338</v>
       </c>
       <c r="E23">
-        <v>10.89838675625151</v>
+        <v>11.37702339761028</v>
       </c>
       <c r="F23">
-        <v>52.36039024262016</v>
+        <v>45.63007438866987</v>
       </c>
       <c r="G23">
-        <v>2.028929114607009</v>
+        <v>2.087002833851912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.646528403649616</v>
+        <v>7.518400616277626</v>
       </c>
       <c r="K23">
-        <v>28.44987537849827</v>
+        <v>18.89036539078601</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.13874300530163</v>
+        <v>15.9637148144164</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.695838782808</v>
+        <v>19.9415467454266</v>
       </c>
       <c r="C24">
-        <v>21.39399776237661</v>
+        <v>11.78164472038738</v>
       </c>
       <c r="D24">
-        <v>3.457445196724095</v>
+        <v>4.739138211213685</v>
       </c>
       <c r="E24">
-        <v>10.23563734334016</v>
+        <v>10.67724803008761</v>
       </c>
       <c r="F24">
-        <v>49.01306832158006</v>
+        <v>43.47047312485726</v>
       </c>
       <c r="G24">
-        <v>2.051503554614005</v>
+        <v>2.102999475164467</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.347458340739083</v>
+        <v>7.266817783663947</v>
       </c>
       <c r="K24">
-        <v>26.04685644610698</v>
+        <v>17.34921198025639</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.44497121240856</v>
+        <v>16.10939748883148</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.62110525558647</v>
+        <v>18.17586059746174</v>
       </c>
       <c r="C25">
-        <v>19.15195574759944</v>
+        <v>10.599081378312</v>
       </c>
       <c r="D25">
-        <v>3.264106664201915</v>
+        <v>4.313316744958443</v>
       </c>
       <c r="E25">
-        <v>9.520695778169378</v>
+        <v>9.908558042179237</v>
       </c>
       <c r="F25">
-        <v>45.46499102835915</v>
+        <v>41.19893634235955</v>
       </c>
       <c r="G25">
-        <v>2.075839898371228</v>
+        <v>2.120535431291727</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.045474919569757</v>
+        <v>7.009624002908031</v>
       </c>
       <c r="K25">
-        <v>23.32143900441597</v>
+        <v>15.88950734470978</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.80139452421311</v>
+        <v>16.29254703076963</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.81429625698297</v>
+        <v>13.62462999771856</v>
       </c>
       <c r="C2">
-        <v>9.745568684978592</v>
+        <v>8.921480839738621</v>
       </c>
       <c r="D2">
-        <v>3.97469522030314</v>
+        <v>7.094416847972136</v>
       </c>
       <c r="E2">
-        <v>9.332441021818072</v>
+        <v>11.43398376927856</v>
       </c>
       <c r="F2">
-        <v>39.57689395249427</v>
+        <v>27.25788945132284</v>
       </c>
       <c r="G2">
-        <v>2.133793188014092</v>
+        <v>32.29745825836999</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.978295108439038</v>
       </c>
       <c r="J2">
-        <v>6.83203681211859</v>
+        <v>11.16684280263826</v>
       </c>
       <c r="K2">
-        <v>14.78937007511659</v>
+        <v>16.44816612607698</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.10326707872839</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.39122678446429</v>
       </c>
       <c r="N2">
-        <v>16.44706187252022</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.02061502772775</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.855097425054</v>
+        <v>12.71103354487614</v>
       </c>
       <c r="C3">
-        <v>9.141031858644903</v>
+        <v>8.317854079984583</v>
       </c>
       <c r="D3">
-        <v>3.729316689932261</v>
+        <v>6.718032637830119</v>
       </c>
       <c r="E3">
-        <v>8.93722349401968</v>
+        <v>10.85029931286467</v>
       </c>
       <c r="F3">
-        <v>38.51050983413236</v>
+        <v>26.61184231637813</v>
       </c>
       <c r="G3">
-        <v>2.143039538188172</v>
+        <v>31.51932857582297</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.237114842065322</v>
       </c>
       <c r="J3">
-        <v>6.718894947762784</v>
+        <v>11.11723958535989</v>
       </c>
       <c r="K3">
-        <v>14.02146767198766</v>
+        <v>16.41854179106065</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.872565953731025</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.5897832089331</v>
       </c>
       <c r="N3">
-        <v>16.56291004424953</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.19622687577316</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.24929403034001</v>
+        <v>12.11673038665873</v>
       </c>
       <c r="C4">
-        <v>8.757393562425301</v>
+        <v>7.925363963813729</v>
       </c>
       <c r="D4">
-        <v>3.570770066534699</v>
+        <v>6.476318837757889</v>
       </c>
       <c r="E4">
-        <v>8.692906789854812</v>
+        <v>10.47574710944986</v>
       </c>
       <c r="F4">
-        <v>37.87265139843367</v>
+        <v>26.21977876107379</v>
       </c>
       <c r="G4">
-        <v>2.148859267423142</v>
+        <v>31.05267596311488</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.401627067791486</v>
       </c>
       <c r="J4">
-        <v>6.652943971560397</v>
+        <v>11.09153745602092</v>
       </c>
       <c r="K4">
-        <v>13.54009308399422</v>
+        <v>16.40896110822418</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.72638149880565</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.06933802948069</v>
       </c>
       <c r="N4">
-        <v>16.63920845216191</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.30616219663009</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.99841854737441</v>
+        <v>11.8661162314994</v>
       </c>
       <c r="C5">
-        <v>8.598027769238522</v>
+        <v>7.759890816934098</v>
       </c>
       <c r="D5">
-        <v>3.504176857872511</v>
+        <v>6.375215781580519</v>
       </c>
       <c r="E5">
-        <v>8.593057110198631</v>
+        <v>10.31913591455216</v>
       </c>
       <c r="F5">
-        <v>37.61708994984846</v>
+        <v>26.06131182704478</v>
       </c>
       <c r="G5">
-        <v>2.151268507820989</v>
+        <v>30.8654533936225</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.470098361644767</v>
       </c>
       <c r="J5">
-        <v>6.626948006683034</v>
+        <v>11.0822292056704</v>
       </c>
       <c r="K5">
-        <v>13.34166499808086</v>
+        <v>16.40714965273045</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.665708431204967</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.85010853833819</v>
       </c>
       <c r="N5">
-        <v>16.67155636456122</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.3515085139428</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95652687363689</v>
+        <v>11.82399146680389</v>
       </c>
       <c r="C6">
-        <v>8.571385837847382</v>
+        <v>7.732079153610718</v>
       </c>
       <c r="D6">
-        <v>3.492999299225715</v>
+        <v>6.358272706634821</v>
       </c>
       <c r="E6">
-        <v>8.576463750936778</v>
+        <v>10.29289340994277</v>
       </c>
       <c r="F6">
-        <v>37.57492175056636</v>
+        <v>26.03508134337758</v>
       </c>
       <c r="G6">
-        <v>2.151670885959761</v>
+        <v>30.83454708332508</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.481555099183665</v>
       </c>
       <c r="J6">
-        <v>6.622684353759036</v>
+        <v>11.08075308555214</v>
       </c>
       <c r="K6">
-        <v>13.30858675979041</v>
+        <v>16.40697314955334</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.655568378241764</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.81327391414841</v>
       </c>
       <c r="N6">
-        <v>16.67700235436374</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.35907172918382</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.24592650479594</v>
+        <v>12.11338471063305</v>
       </c>
       <c r="C7">
-        <v>8.755256409035484</v>
+        <v>7.923154770499006</v>
       </c>
       <c r="D7">
-        <v>3.569880000382866</v>
+        <v>6.474965767394468</v>
       </c>
       <c r="E7">
-        <v>8.691561170768441</v>
+        <v>10.47365097389229</v>
       </c>
       <c r="F7">
-        <v>37.86918694720454</v>
+        <v>26.21763615911193</v>
       </c>
       <c r="G7">
-        <v>2.148891604481888</v>
+        <v>31.05013891254706</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.402544669316335</v>
       </c>
       <c r="J7">
-        <v>6.652589826867514</v>
+        <v>11.09140724243474</v>
       </c>
       <c r="K7">
-        <v>13.53742585564447</v>
+        <v>16.40892830010344</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.725567647657196</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.06641036233411</v>
       </c>
       <c r="N7">
-        <v>16.63963967778656</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.30677151768716</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.48718294014461</v>
+        <v>13.31651690201473</v>
       </c>
       <c r="C8">
-        <v>9.539757981471549</v>
+        <v>8.717867407187791</v>
       </c>
       <c r="D8">
-        <v>3.891722380458297</v>
+        <v>6.966877378784815</v>
       </c>
       <c r="E8">
-        <v>9.196583251866358</v>
+        <v>11.23613153042124</v>
       </c>
       <c r="F8">
-        <v>39.20576542061566</v>
+        <v>27.03425994323825</v>
       </c>
       <c r="G8">
-        <v>2.136952914024284</v>
+        <v>32.02693891600138</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.066389535608955</v>
       </c>
       <c r="J8">
-        <v>6.792292239470286</v>
+        <v>11.14873500662097</v>
       </c>
       <c r="K8">
-        <v>14.52676572144118</v>
+        <v>16.43612166531363</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.024683615284459</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.12076395591571</v>
       </c>
       <c r="N8">
-        <v>16.48590629678591</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.08073842795255</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.78033332411322</v>
+        <v>15.41328918996276</v>
       </c>
       <c r="C9">
-        <v>10.99430101647069</v>
+        <v>10.10436498396529</v>
       </c>
       <c r="D9">
-        <v>4.460613536183893</v>
+        <v>7.845091350994019</v>
       </c>
       <c r="E9">
-        <v>10.16922613602217</v>
+        <v>12.60015655897314</v>
       </c>
       <c r="F9">
-        <v>41.9563862797627</v>
+        <v>28.66618931878092</v>
       </c>
       <c r="G9">
-        <v>2.114581161107219</v>
+        <v>34.02427843421958</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.66801984061946</v>
       </c>
       <c r="J9">
-        <v>7.094407735763561</v>
+        <v>11.30019029755193</v>
       </c>
       <c r="K9">
-        <v>16.38114675023159</v>
+        <v>16.56096314277149</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.573847026169076</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.96430950661846</v>
       </c>
       <c r="N9">
-        <v>16.22763271729942</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.65343512354518</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.39494382242559</v>
+        <v>16.76544950630969</v>
       </c>
       <c r="C10">
-        <v>12.07215957191802</v>
+        <v>10.96384135131626</v>
       </c>
       <c r="D10">
-        <v>4.84134219410943</v>
+        <v>8.346587637145403</v>
       </c>
       <c r="E10">
-        <v>10.8683233358955</v>
+        <v>13.2907716543032</v>
       </c>
       <c r="F10">
-        <v>44.05203612684138</v>
+        <v>29.67646481652055</v>
       </c>
       <c r="G10">
-        <v>2.098640857223065</v>
+        <v>35.2962308128126</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.071895174750529</v>
       </c>
       <c r="J10">
-        <v>7.333962710415111</v>
+        <v>11.39234626843925</v>
       </c>
       <c r="K10">
-        <v>17.77558267415639</v>
+        <v>16.6270379200767</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.840858564887848</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.14516018339241</v>
       </c>
       <c r="N10">
-        <v>16.06766687797458</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.33814475092223</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.17691707941857</v>
+        <v>17.08147604655212</v>
       </c>
       <c r="C11">
-        <v>12.54404490270062</v>
+        <v>10.85170391539461</v>
       </c>
       <c r="D11">
-        <v>5.006683196972695</v>
+        <v>7.803400727096466</v>
       </c>
       <c r="E11">
-        <v>11.1824155936538</v>
+        <v>11.65826227125442</v>
       </c>
       <c r="F11">
-        <v>45.02143454455378</v>
+        <v>28.41157605856486</v>
       </c>
       <c r="G11">
-        <v>2.091462584242553</v>
+        <v>33.83165955793157</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.934594277229456</v>
       </c>
       <c r="J11">
-        <v>7.446896496927626</v>
+        <v>11.05175213088204</v>
       </c>
       <c r="K11">
-        <v>18.46714108818847</v>
+        <v>16.0295268047521</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.043164447939368</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.32413139465979</v>
       </c>
       <c r="N11">
-        <v>16.00226018957864</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.12295930253414</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.46865825431167</v>
+        <v>17.07206194487331</v>
       </c>
       <c r="C12">
-        <v>12.72019339945379</v>
+        <v>10.57971732667799</v>
       </c>
       <c r="D12">
-        <v>5.068186413884856</v>
+        <v>7.237908776449041</v>
       </c>
       <c r="E12">
-        <v>11.30076772444834</v>
+        <v>10.17906930449029</v>
       </c>
       <c r="F12">
-        <v>45.39087180977288</v>
+        <v>27.10909777687896</v>
       </c>
       <c r="G12">
-        <v>2.088751658071682</v>
+        <v>32.29422624284717</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.178054068543145</v>
       </c>
       <c r="J12">
-        <v>7.490246099022355</v>
+        <v>10.7387719510066</v>
       </c>
       <c r="K12">
-        <v>18.72497882953333</v>
+        <v>15.50318413839844</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.39455118895535</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.23398918749993</v>
       </c>
       <c r="N12">
-        <v>15.97863827043156</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.02334881518972</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.40601864612279</v>
+        <v>16.81182608308098</v>
       </c>
       <c r="C13">
-        <v>12.68236794847939</v>
+        <v>10.15945486270467</v>
       </c>
       <c r="D13">
-        <v>5.054989486945973</v>
+        <v>6.606702919450025</v>
       </c>
       <c r="E13">
-        <v>11.27530475456159</v>
+        <v>8.721803391186782</v>
       </c>
       <c r="F13">
-        <v>45.31120134384724</v>
+        <v>25.67914705227979</v>
       </c>
       <c r="G13">
-        <v>2.089335232852639</v>
+        <v>30.57790246006917</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.489643389563229</v>
       </c>
       <c r="J13">
-        <v>7.480883724788585</v>
+        <v>10.42686167110954</v>
       </c>
       <c r="K13">
-        <v>18.66962591176652</v>
+        <v>14.99858289480272</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.840196127260347</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.92896386566132</v>
       </c>
       <c r="N13">
-        <v>15.98367318445827</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.00483197221409</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.20100558944934</v>
+        <v>16.51269236470108</v>
       </c>
       <c r="C14">
-        <v>12.55858706561886</v>
+        <v>9.792214189255738</v>
       </c>
       <c r="D14">
-        <v>5.011765170561583</v>
+        <v>6.129312948008218</v>
       </c>
       <c r="E14">
-        <v>11.1921643299417</v>
+        <v>7.738572705879869</v>
       </c>
       <c r="F14">
-        <v>45.05178093303157</v>
+        <v>24.61606669358804</v>
       </c>
       <c r="G14">
-        <v>2.091239427246965</v>
+        <v>29.2870490663225</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.446854292999224</v>
       </c>
       <c r="J14">
-        <v>7.450451088295599</v>
+        <v>10.21018171970851</v>
       </c>
       <c r="K14">
-        <v>18.48843358405576</v>
+        <v>14.65826069854164</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.52716613240998</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.61434561819407</v>
       </c>
       <c r="N14">
-        <v>16.00029328829623</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.02958669135364</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.07486400935965</v>
+        <v>16.38492252769654</v>
       </c>
       <c r="C15">
-        <v>12.48243981598025</v>
+        <v>9.669398480006244</v>
       </c>
       <c r="D15">
-        <v>4.98514545464451</v>
+        <v>5.997865984174506</v>
       </c>
       <c r="E15">
-        <v>11.14116155760397</v>
+        <v>7.499214952719085</v>
       </c>
       <c r="F15">
-        <v>44.89318608555759</v>
+        <v>24.33257337574125</v>
       </c>
       <c r="G15">
-        <v>2.092406655694889</v>
+        <v>28.93780797861512</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.687461603456797</v>
       </c>
       <c r="J15">
-        <v>7.431886796752939</v>
+        <v>10.15880127698527</v>
       </c>
       <c r="K15">
-        <v>18.37692674681745</v>
+        <v>14.58183272417027</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.460564533471779</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.4903841229546</v>
       </c>
       <c r="N15">
-        <v>16.01062563280551</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.050426006483</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.34321956142963</v>
+        <v>15.86520536679037</v>
       </c>
       <c r="C16">
-        <v>12.04095853617496</v>
+        <v>9.366529127414841</v>
       </c>
       <c r="D16">
-        <v>4.830380492946243</v>
+        <v>5.875309811516618</v>
       </c>
       <c r="E16">
-        <v>10.84771517010842</v>
+        <v>7.417596582859821</v>
       </c>
       <c r="F16">
-        <v>43.98900896532292</v>
+        <v>24.14733633036536</v>
       </c>
       <c r="G16">
-        <v>2.099111180636849</v>
+        <v>28.67536156625425</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.481829675995495</v>
       </c>
       <c r="J16">
-        <v>7.326663040207472</v>
+        <v>10.18000058632749</v>
       </c>
       <c r="K16">
-        <v>17.72981351648881</v>
+        <v>14.65313155346956</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.44034202127622</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.04561423767736</v>
       </c>
       <c r="N16">
-        <v>16.07209673899182</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.18266079274471</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91756252921753</v>
+        <v>15.62512058122709</v>
       </c>
       <c r="C17">
-        <v>11.76547296565316</v>
+        <v>9.335623234966276</v>
       </c>
       <c r="D17">
-        <v>4.733439844171965</v>
+        <v>6.044088811999225</v>
       </c>
       <c r="E17">
-        <v>10.66666595536166</v>
+        <v>7.874633148852145</v>
       </c>
       <c r="F17">
-        <v>43.43845174785042</v>
+        <v>24.5820698452507</v>
       </c>
       <c r="G17">
-        <v>2.103240747091223</v>
+        <v>29.1794227518746</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.740490616632619</v>
       </c>
       <c r="J17">
-        <v>7.263134723536796</v>
+        <v>10.31215449162505</v>
       </c>
       <c r="K17">
-        <v>17.32546371168016</v>
+        <v>14.88894607627897</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.576782326508712</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.87299664985206</v>
       </c>
       <c r="N17">
-        <v>16.11175182647335</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.27147954554894</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.68026263264019</v>
+        <v>15.6067156459317</v>
       </c>
       <c r="C18">
-        <v>11.60527813864827</v>
+        <v>9.541251397507997</v>
       </c>
       <c r="D18">
-        <v>4.676941358731761</v>
+        <v>6.488027688512493</v>
       </c>
       <c r="E18">
-        <v>10.56216131898781</v>
+        <v>8.934207903272986</v>
       </c>
       <c r="F18">
-        <v>43.12329387954718</v>
+        <v>25.59618221520278</v>
       </c>
       <c r="G18">
-        <v>2.105623049636614</v>
+        <v>30.38973885628832</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.469142826724381</v>
       </c>
       <c r="J18">
-        <v>7.226966432584861</v>
+        <v>10.5533457399937</v>
       </c>
       <c r="K18">
-        <v>17.11626078096889</v>
+        <v>15.29208624231955</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.944838197156962</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.92261711506937</v>
       </c>
       <c r="N18">
-        <v>16.13524753085382</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.34072016462606</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59958953212584</v>
+        <v>15.76880439857717</v>
       </c>
       <c r="C19">
-        <v>11.55073658373958</v>
+        <v>9.919383970726937</v>
       </c>
       <c r="D19">
-        <v>4.657684106538441</v>
+        <v>7.118669517446416</v>
       </c>
       <c r="E19">
-        <v>10.52671533900852</v>
+        <v>10.47025667324881</v>
       </c>
       <c r="F19">
-        <v>43.0168456432488</v>
+        <v>26.99769664553375</v>
       </c>
       <c r="G19">
-        <v>2.106430964439581</v>
+        <v>32.06651009413023</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>2.969832696368691</v>
       </c>
       <c r="J19">
-        <v>7.214783905004812</v>
+        <v>10.86541727023205</v>
       </c>
       <c r="K19">
-        <v>17.05021809772888</v>
+        <v>15.8042647639564</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.566426778341773</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.1478296300521</v>
       </c>
       <c r="N19">
-        <v>16.14331830272306</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.39944832760136</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.96132589487733</v>
+        <v>16.41916452639397</v>
       </c>
       <c r="C20">
-        <v>11.7949785233538</v>
+        <v>10.74186179182429</v>
       </c>
       <c r="D20">
-        <v>4.743835864398643</v>
+        <v>8.213924424868614</v>
       </c>
       <c r="E20">
-        <v>10.68597746794369</v>
+        <v>13.10291575934754</v>
       </c>
       <c r="F20">
-        <v>43.4969033378696</v>
+        <v>29.40120839735194</v>
       </c>
       <c r="G20">
-        <v>2.102800436313169</v>
+        <v>34.94833450288252</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.965332946303231</v>
       </c>
       <c r="J20">
-        <v>7.269858879007586</v>
+        <v>11.36440297199057</v>
       </c>
       <c r="K20">
-        <v>17.36879159219396</v>
+        <v>16.60307436909863</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.766830372700262</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.84200333913627</v>
       </c>
       <c r="N20">
-        <v>16.10745875900367</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.41988939267515</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.26134038639196</v>
+        <v>17.45652007800898</v>
       </c>
       <c r="C21">
-        <v>12.59501262854919</v>
+        <v>11.45770153038867</v>
       </c>
       <c r="D21">
-        <v>5.024491077465438</v>
+        <v>8.719447460793996</v>
       </c>
       <c r="E21">
-        <v>11.21660071683733</v>
+        <v>13.96257005839988</v>
       </c>
       <c r="F21">
-        <v>45.12791474173522</v>
+        <v>30.48781784529412</v>
       </c>
       <c r="G21">
-        <v>2.090679947307572</v>
+        <v>36.30337435965809</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.290660699616278</v>
       </c>
       <c r="J21">
-        <v>7.459373899434627</v>
+        <v>11.51283657331114</v>
       </c>
       <c r="K21">
-        <v>18.54176250179361</v>
+        <v>16.78412474193953</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.137886861299712</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.76637509838969</v>
       </c>
       <c r="N21">
-        <v>15.99537970159647</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.19576907310223</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.10252686361722</v>
+        <v>18.09065128440393</v>
       </c>
       <c r="C22">
-        <v>13.10311273687778</v>
+        <v>11.87824259094755</v>
       </c>
       <c r="D22">
-        <v>5.201470623389103</v>
+        <v>8.993606735689074</v>
       </c>
       <c r="E22">
-        <v>11.55997200541766</v>
+        <v>14.39076776966543</v>
       </c>
       <c r="F22">
-        <v>46.20761314000529</v>
+        <v>31.09559325851697</v>
       </c>
       <c r="G22">
-        <v>2.082799496012829</v>
+        <v>37.07266505762885</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.491506215638126</v>
       </c>
       <c r="J22">
-        <v>7.586647657464943</v>
+        <v>11.59218391380136</v>
       </c>
       <c r="K22">
-        <v>19.28490084582166</v>
+        <v>16.87487615658736</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.317962096976864</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.32656978137987</v>
       </c>
       <c r="N22">
-        <v>15.92885924100698</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.04536106067275</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.6558424248162</v>
+        <v>17.7547204138481</v>
       </c>
       <c r="C23">
-        <v>12.8332418615326</v>
+        <v>11.65542797453675</v>
       </c>
       <c r="D23">
-        <v>5.10759499744338</v>
+        <v>8.8482275111178</v>
       </c>
       <c r="E23">
-        <v>11.37702339761028</v>
+        <v>14.16364393342792</v>
       </c>
       <c r="F23">
-        <v>45.63007438866987</v>
+        <v>30.77123030033971</v>
       </c>
       <c r="G23">
-        <v>2.087002833851912</v>
+        <v>36.66161022531299</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.384653653408964</v>
       </c>
       <c r="J23">
-        <v>7.518400616277626</v>
+        <v>11.54935499668559</v>
       </c>
       <c r="K23">
-        <v>18.89036539078601</v>
+        <v>16.82550281932033</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.222290665209112</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.02975746272537</v>
       </c>
       <c r="N23">
-        <v>15.9637148144164</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.12553583826104</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.9415467454266</v>
+        <v>16.42684122705555</v>
       </c>
       <c r="C24">
-        <v>11.78164472038738</v>
+        <v>10.77538668588471</v>
       </c>
       <c r="D24">
-        <v>4.739138211213685</v>
+        <v>8.276929812299194</v>
       </c>
       <c r="E24">
-        <v>10.67724803008761</v>
+        <v>13.27245186509458</v>
       </c>
       <c r="F24">
-        <v>43.47047312485726</v>
+        <v>29.54291519408939</v>
       </c>
       <c r="G24">
-        <v>2.102999475164467</v>
+        <v>35.11574719331167</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.972252220500195</v>
       </c>
       <c r="J24">
-        <v>7.266817783663947</v>
+        <v>11.39752208845712</v>
       </c>
       <c r="K24">
-        <v>17.34921198025639</v>
+        <v>16.65867867778248</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.850402798284009</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.85763477862664</v>
       </c>
       <c r="N24">
-        <v>16.10939748883148</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.43153408218576</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.17586059746174</v>
+        <v>14.87386752909379</v>
       </c>
       <c r="C25">
-        <v>10.599081378312</v>
+        <v>9.747467124699281</v>
       </c>
       <c r="D25">
-        <v>4.313316744958443</v>
+        <v>7.617025763682833</v>
       </c>
       <c r="E25">
-        <v>9.908558042179237</v>
+        <v>12.2455381576052</v>
       </c>
       <c r="F25">
-        <v>41.19893634235955</v>
+        <v>28.22225697392389</v>
       </c>
       <c r="G25">
-        <v>2.120535431291727</v>
+        <v>33.47605890269958</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.612614215630569</v>
       </c>
       <c r="J25">
-        <v>7.009624002908031</v>
+        <v>11.25485446533285</v>
       </c>
       <c r="K25">
-        <v>15.88950734470978</v>
+        <v>16.51908094705988</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.429468694463365</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.48940777507762</v>
       </c>
       <c r="N25">
-        <v>16.29254703076963</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.76744092630046</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62462999771856</v>
+        <v>13.27227423466466</v>
       </c>
       <c r="C2">
-        <v>8.921480839738621</v>
+        <v>9.577493174944486</v>
       </c>
       <c r="D2">
-        <v>7.094416847972136</v>
+        <v>7.325763984789314</v>
       </c>
       <c r="E2">
-        <v>11.43398376927856</v>
+        <v>11.566033231777</v>
       </c>
       <c r="F2">
-        <v>27.25788945132284</v>
+        <v>26.36066252721125</v>
       </c>
       <c r="G2">
-        <v>32.29745825836999</v>
+        <v>30.31626705937992</v>
       </c>
       <c r="H2">
-        <v>1.978295108439038</v>
+        <v>1.92996081454555</v>
       </c>
       <c r="J2">
-        <v>11.16684280263826</v>
+        <v>11.10345703732249</v>
       </c>
       <c r="K2">
-        <v>16.44816612607698</v>
+        <v>15.5836216316989</v>
       </c>
       <c r="L2">
-        <v>7.10326707872839</v>
+        <v>13.17724869846957</v>
       </c>
       <c r="M2">
-        <v>12.39122678446429</v>
+        <v>9.949921919841612</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.105501484236602</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.34898662244454</v>
       </c>
       <c r="P2">
-        <v>13.02061502772775</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.81349410299391</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.71103354487614</v>
+        <v>12.42773928001512</v>
       </c>
       <c r="C3">
-        <v>8.317854079984583</v>
+        <v>8.925472027355791</v>
       </c>
       <c r="D3">
-        <v>6.718032637830119</v>
+        <v>6.935234761517339</v>
       </c>
       <c r="E3">
-        <v>10.85029931286467</v>
+        <v>10.9871123059538</v>
       </c>
       <c r="F3">
-        <v>26.61184231637813</v>
+        <v>25.79293148825059</v>
       </c>
       <c r="G3">
-        <v>31.51932857582297</v>
+        <v>29.71747254428685</v>
       </c>
       <c r="H3">
-        <v>2.237114842065322</v>
+        <v>2.171735221922507</v>
       </c>
       <c r="J3">
-        <v>11.11723958535989</v>
+        <v>11.03334285083795</v>
       </c>
       <c r="K3">
-        <v>16.41854179106065</v>
+        <v>15.60142229739034</v>
       </c>
       <c r="L3">
-        <v>6.872565953731025</v>
+        <v>13.28719311503949</v>
       </c>
       <c r="M3">
-        <v>11.5897832089331</v>
+        <v>9.868638378780743</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.885327784941997</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.5641994227625</v>
       </c>
       <c r="P3">
-        <v>13.19622687577316</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.97983027707039</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.11673038665873</v>
+        <v>11.87821507382943</v>
       </c>
       <c r="C4">
-        <v>7.925363963813729</v>
+        <v>8.504039846628409</v>
       </c>
       <c r="D4">
-        <v>6.476318837757889</v>
+        <v>6.684856545374195</v>
       </c>
       <c r="E4">
-        <v>10.47574710944986</v>
+        <v>10.61601483609207</v>
       </c>
       <c r="F4">
-        <v>26.21977876107379</v>
+        <v>25.44781705865446</v>
       </c>
       <c r="G4">
-        <v>31.05267596311488</v>
+        <v>29.36384934562045</v>
       </c>
       <c r="H4">
-        <v>2.401627067791486</v>
+        <v>2.325542666487835</v>
       </c>
       <c r="J4">
-        <v>11.09153745602092</v>
+        <v>10.99215705564279</v>
       </c>
       <c r="K4">
-        <v>16.40896110822418</v>
+        <v>15.61872333869434</v>
       </c>
       <c r="L4">
-        <v>6.72638149880565</v>
+        <v>13.35650258029657</v>
       </c>
       <c r="M4">
-        <v>11.06933802948069</v>
+        <v>9.842304560128511</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.745910275444313</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.05445583009051</v>
       </c>
       <c r="P4">
-        <v>13.30616219663009</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.0839751122857</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8661162314994</v>
+        <v>11.64646256254685</v>
       </c>
       <c r="C5">
-        <v>7.759890816934098</v>
+        <v>8.327057880025865</v>
       </c>
       <c r="D5">
-        <v>6.375215781580519</v>
+        <v>6.580246951023653</v>
       </c>
       <c r="E5">
-        <v>10.31913591455216</v>
+        <v>10.46096031044266</v>
       </c>
       <c r="F5">
-        <v>26.06131182704478</v>
+        <v>25.30815620892221</v>
       </c>
       <c r="G5">
-        <v>30.8654533936225</v>
+        <v>29.22329987304224</v>
       </c>
       <c r="H5">
-        <v>2.470098361644767</v>
+        <v>2.389588103084898</v>
       </c>
       <c r="J5">
-        <v>11.0822292056704</v>
+        <v>10.97583528982738</v>
       </c>
       <c r="K5">
-        <v>16.40714965273045</v>
+        <v>15.62731461722832</v>
       </c>
       <c r="L5">
-        <v>6.665708431204967</v>
+        <v>13.38520400803008</v>
       </c>
       <c r="M5">
-        <v>10.85010853833819</v>
+        <v>9.837464165298226</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.688071186028563</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.83971681734907</v>
       </c>
       <c r="P5">
-        <v>13.3515085139428</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.126937155805</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.82399146680389</v>
+        <v>11.60750735876125</v>
       </c>
       <c r="C6">
-        <v>7.732079153610718</v>
+        <v>8.297355502192669</v>
       </c>
       <c r="D6">
-        <v>6.358272706634821</v>
+        <v>6.562723700601016</v>
       </c>
       <c r="E6">
-        <v>10.29289340994277</v>
+        <v>10.43498576132925</v>
       </c>
       <c r="F6">
-        <v>26.03508134337758</v>
+        <v>25.28502757474335</v>
       </c>
       <c r="G6">
-        <v>30.83454708332508</v>
+        <v>29.20017694064376</v>
       </c>
       <c r="H6">
-        <v>2.481555099183665</v>
+        <v>2.400305991921735</v>
       </c>
       <c r="J6">
-        <v>11.08075308555214</v>
+        <v>10.97315275071486</v>
       </c>
       <c r="K6">
-        <v>16.40697314955334</v>
+        <v>15.62883250016956</v>
       </c>
       <c r="L6">
-        <v>6.655568378241764</v>
+        <v>13.38999758951988</v>
       </c>
       <c r="M6">
-        <v>10.81327391414841</v>
+        <v>9.837014346812625</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.678406323532214</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.80363597419404</v>
       </c>
       <c r="P6">
-        <v>13.35907172918382</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.13410295855424</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.11338471063305</v>
+        <v>11.87082373669656</v>
       </c>
       <c r="C7">
-        <v>7.923154770499006</v>
+        <v>8.490019835060036</v>
       </c>
       <c r="D7">
-        <v>6.474965767394468</v>
+        <v>6.688366822168468</v>
       </c>
       <c r="E7">
-        <v>10.47365097389229</v>
+        <v>10.61566697780896</v>
       </c>
       <c r="F7">
-        <v>26.21763615911193</v>
+        <v>25.42686465080345</v>
       </c>
       <c r="G7">
-        <v>31.05013891254706</v>
+        <v>29.43577849887837</v>
       </c>
       <c r="H7">
-        <v>2.402544669316335</v>
+        <v>2.327104261408091</v>
       </c>
       <c r="J7">
-        <v>11.09140724243474</v>
+        <v>10.94763993304188</v>
       </c>
       <c r="K7">
-        <v>16.40892830010344</v>
+        <v>15.60970198095348</v>
       </c>
       <c r="L7">
-        <v>6.725567647657196</v>
+        <v>13.3489094062916</v>
       </c>
       <c r="M7">
-        <v>11.06641036233411</v>
+        <v>9.836341218354514</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.744341318209959</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.04520035408637</v>
       </c>
       <c r="P7">
-        <v>13.30677151768716</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.08314380458187</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31651690201473</v>
+        <v>12.97431436535263</v>
       </c>
       <c r="C8">
-        <v>8.717867407187791</v>
+        <v>9.321291479649146</v>
       </c>
       <c r="D8">
-        <v>6.966877378784815</v>
+        <v>7.208698299257136</v>
       </c>
       <c r="E8">
-        <v>11.23613153042124</v>
+        <v>11.37520381341402</v>
       </c>
       <c r="F8">
-        <v>27.03425994323825</v>
+        <v>26.10280543800368</v>
       </c>
       <c r="G8">
-        <v>32.02693891600138</v>
+        <v>30.34720025695296</v>
       </c>
       <c r="H8">
-        <v>2.066389535608955</v>
+        <v>2.014402860938261</v>
       </c>
       <c r="J8">
-        <v>11.14873500662097</v>
+        <v>10.93442158730739</v>
       </c>
       <c r="K8">
-        <v>16.43612166531363</v>
+        <v>15.55845230450633</v>
       </c>
       <c r="L8">
-        <v>7.024683615284459</v>
+        <v>13.19027627987111</v>
       </c>
       <c r="M8">
-        <v>12.12076395591571</v>
+        <v>9.895621339625368</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.028010477538828</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.06454323548539</v>
       </c>
       <c r="P8">
-        <v>13.08073842795255</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.86618352984556</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.41328918996276</v>
+        <v>14.90960397132026</v>
       </c>
       <c r="C9">
-        <v>10.10436498396529</v>
+        <v>10.85243807935375</v>
       </c>
       <c r="D9">
-        <v>7.845091350994019</v>
+        <v>8.123950287563572</v>
       </c>
       <c r="E9">
-        <v>12.60015655897314</v>
+        <v>12.73061179179347</v>
       </c>
       <c r="F9">
-        <v>28.66618931878092</v>
+        <v>27.52193195812346</v>
       </c>
       <c r="G9">
-        <v>34.02427843421958</v>
+        <v>31.96991502590373</v>
       </c>
       <c r="H9">
-        <v>1.66801984061946</v>
+        <v>1.67803876314217</v>
       </c>
       <c r="J9">
-        <v>11.30019029755193</v>
+        <v>11.08351786972594</v>
       </c>
       <c r="K9">
-        <v>16.56096314277149</v>
+        <v>15.54461140823823</v>
       </c>
       <c r="L9">
-        <v>7.573847026169076</v>
+        <v>12.92246497248936</v>
       </c>
       <c r="M9">
-        <v>13.96430950661846</v>
+        <v>10.22033246711095</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.552159587520616</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.86621258280621</v>
       </c>
       <c r="P9">
-        <v>12.65343512354518</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.46108077126805</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.76544950630969</v>
+        <v>16.14038351014977</v>
       </c>
       <c r="C10">
-        <v>10.96384135131626</v>
+        <v>11.78114980600315</v>
       </c>
       <c r="D10">
-        <v>8.346587637145403</v>
+        <v>8.671724445658596</v>
       </c>
       <c r="E10">
-        <v>13.2907716543032</v>
+        <v>13.42357579675587</v>
       </c>
       <c r="F10">
-        <v>29.67646481652055</v>
+        <v>28.28816496254487</v>
       </c>
       <c r="G10">
-        <v>35.2962308128126</v>
+        <v>33.39788307148294</v>
       </c>
       <c r="H10">
-        <v>2.071895174750529</v>
+        <v>2.05051532431789</v>
       </c>
       <c r="J10">
-        <v>11.39234626843925</v>
+        <v>10.92294351370463</v>
       </c>
       <c r="K10">
-        <v>16.6270379200767</v>
+        <v>15.45841058216914</v>
       </c>
       <c r="L10">
-        <v>7.840858564887848</v>
+        <v>12.65435711248079</v>
       </c>
       <c r="M10">
-        <v>15.14516018339241</v>
+        <v>10.47637792256786</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.799283552535247</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.99060994735366</v>
       </c>
       <c r="P10">
-        <v>12.33814475092223</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.16072785527568</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.08147604655212</v>
+        <v>16.42291396631166</v>
       </c>
       <c r="C11">
-        <v>10.85170391539461</v>
+        <v>11.53549373467461</v>
       </c>
       <c r="D11">
-        <v>7.803400727096466</v>
+        <v>8.163989363226939</v>
       </c>
       <c r="E11">
-        <v>11.65826227125442</v>
+        <v>11.79398341292467</v>
       </c>
       <c r="F11">
-        <v>28.41157605856486</v>
+        <v>26.85916981277769</v>
       </c>
       <c r="G11">
-        <v>33.83165955793157</v>
+        <v>32.84114363254654</v>
       </c>
       <c r="H11">
-        <v>2.934594277229456</v>
+        <v>2.910677003249292</v>
       </c>
       <c r="J11">
-        <v>11.05175213088204</v>
+        <v>10.14571622228504</v>
       </c>
       <c r="K11">
-        <v>16.0295268047521</v>
+        <v>14.81270562634769</v>
       </c>
       <c r="L11">
-        <v>7.043164447939368</v>
+        <v>12.11162048091834</v>
       </c>
       <c r="M11">
-        <v>15.32413139465979</v>
+        <v>10.0928222777126</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.994196011617138</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.1067419389468</v>
       </c>
       <c r="P11">
-        <v>12.12295930253414</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.99045007768219</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.07206194487331</v>
+        <v>16.42187763514055</v>
       </c>
       <c r="C12">
-        <v>10.57971732667799</v>
+        <v>11.16648593900338</v>
       </c>
       <c r="D12">
-        <v>7.237908776449041</v>
+        <v>7.6033173848688</v>
       </c>
       <c r="E12">
-        <v>10.17906930449029</v>
+        <v>10.30740335738848</v>
       </c>
       <c r="F12">
-        <v>27.10909777687896</v>
+        <v>25.53535001847453</v>
       </c>
       <c r="G12">
-        <v>32.29422624284717</v>
+        <v>31.79335386067853</v>
       </c>
       <c r="H12">
-        <v>4.178054068543145</v>
+        <v>4.160472625547506</v>
       </c>
       <c r="J12">
-        <v>10.7387719510066</v>
+        <v>9.693938058944234</v>
       </c>
       <c r="K12">
-        <v>15.50318413839844</v>
+        <v>14.31611713385559</v>
       </c>
       <c r="L12">
-        <v>6.39455118895535</v>
+        <v>11.74317235766586</v>
       </c>
       <c r="M12">
-        <v>15.23398918749993</v>
+        <v>9.725774622821842</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.346862431461298</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.99237149314799</v>
       </c>
       <c r="P12">
-        <v>12.02334881518972</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.93176410588277</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.81182608308098</v>
+        <v>16.21134580520461</v>
       </c>
       <c r="C13">
-        <v>10.15945486270467</v>
+        <v>10.68972597909258</v>
       </c>
       <c r="D13">
-        <v>6.606702919450025</v>
+        <v>6.944374751207524</v>
       </c>
       <c r="E13">
-        <v>8.721803391186782</v>
+        <v>8.831485365033249</v>
       </c>
       <c r="F13">
-        <v>25.67914705227979</v>
+        <v>24.23270238578623</v>
       </c>
       <c r="G13">
-        <v>30.57790246006917</v>
+        <v>30.10665058573713</v>
       </c>
       <c r="H13">
-        <v>5.489643389563229</v>
+        <v>5.478955290466802</v>
       </c>
       <c r="J13">
-        <v>10.42686167110954</v>
+        <v>9.514130472731301</v>
       </c>
       <c r="K13">
-        <v>14.99858289480272</v>
+        <v>13.92056298111418</v>
       </c>
       <c r="L13">
-        <v>5.840196127260347</v>
+        <v>11.48555381351189</v>
       </c>
       <c r="M13">
-        <v>14.92896386566132</v>
+        <v>9.367893945565744</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.802097092749815</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.70287489216936</v>
       </c>
       <c r="P13">
-        <v>12.00483197221409</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.94673870584177</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.51269236470108</v>
+        <v>15.96605147111367</v>
       </c>
       <c r="C14">
-        <v>9.792214189255738</v>
+        <v>10.29919061028856</v>
       </c>
       <c r="D14">
-        <v>6.129312948008218</v>
+        <v>6.433357226413063</v>
       </c>
       <c r="E14">
-        <v>7.738572705879869</v>
+        <v>7.830616730637424</v>
       </c>
       <c r="F14">
-        <v>24.61606669358804</v>
+        <v>23.32245358603566</v>
       </c>
       <c r="G14">
-        <v>29.2870490663225</v>
+        <v>28.64023598324221</v>
       </c>
       <c r="H14">
-        <v>6.446854292999224</v>
+        <v>6.451553142299153</v>
       </c>
       <c r="J14">
-        <v>10.21018171970851</v>
+        <v>9.492830713685342</v>
       </c>
       <c r="K14">
-        <v>14.65826069854164</v>
+        <v>13.68796451973739</v>
       </c>
       <c r="L14">
-        <v>5.52716613240998</v>
+        <v>11.34986480637806</v>
       </c>
       <c r="M14">
-        <v>14.61434561819407</v>
+        <v>9.123784232236137</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.499365212950228</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.4167384778579</v>
       </c>
       <c r="P14">
-        <v>12.02958669135364</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.98800057985012</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.38492252769654</v>
+        <v>15.85983657256349</v>
       </c>
       <c r="C15">
-        <v>9.669398480006244</v>
+        <v>10.17758590354932</v>
       </c>
       <c r="D15">
-        <v>5.997865984174506</v>
+        <v>6.287941628205932</v>
       </c>
       <c r="E15">
-        <v>7.499214952719085</v>
+        <v>7.586300521948079</v>
       </c>
       <c r="F15">
-        <v>24.33257337574125</v>
+        <v>23.10281287832284</v>
       </c>
       <c r="G15">
-        <v>28.93780797861512</v>
+        <v>28.16659563694591</v>
       </c>
       <c r="H15">
-        <v>6.687461603456797</v>
+        <v>6.691347925718261</v>
       </c>
       <c r="J15">
-        <v>10.15880127698527</v>
+        <v>9.532135048534325</v>
       </c>
       <c r="K15">
-        <v>14.58183272417027</v>
+        <v>13.65067949217469</v>
       </c>
       <c r="L15">
-        <v>5.460564533471779</v>
+        <v>11.3357760406868</v>
       </c>
       <c r="M15">
-        <v>14.4903841229546</v>
+        <v>9.067512953024867</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.436564365324193</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.30739555666426</v>
       </c>
       <c r="P15">
-        <v>12.050426006483</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.01000307149891</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.86520536679037</v>
+        <v>15.41344826292233</v>
       </c>
       <c r="C16">
-        <v>9.366529127414841</v>
+        <v>9.929454529644035</v>
       </c>
       <c r="D16">
-        <v>5.875309811516618</v>
+        <v>6.118138716828241</v>
       </c>
       <c r="E16">
-        <v>7.417596582859821</v>
+        <v>7.503288027432461</v>
       </c>
       <c r="F16">
-        <v>24.14733633036536</v>
+        <v>23.13976594660246</v>
       </c>
       <c r="G16">
-        <v>28.67536156625425</v>
+        <v>27.24458818142115</v>
       </c>
       <c r="H16">
-        <v>6.481829675995495</v>
+        <v>6.482416080730484</v>
       </c>
       <c r="J16">
-        <v>10.18000058632749</v>
+        <v>9.926651645965483</v>
       </c>
       <c r="K16">
-        <v>14.65313155346956</v>
+        <v>13.83079530313765</v>
       </c>
       <c r="L16">
-        <v>5.44034202127622</v>
+        <v>11.51679316549882</v>
       </c>
       <c r="M16">
-        <v>14.04561423767736</v>
+        <v>9.096081682710025</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.427510689575613</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.92755193124872</v>
       </c>
       <c r="P16">
-        <v>12.18266079274471</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.12054387808899</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.62512058122709</v>
+        <v>15.19528699009351</v>
       </c>
       <c r="C17">
-        <v>9.335623234966276</v>
+        <v>9.941216976476902</v>
       </c>
       <c r="D17">
-        <v>6.044088811999225</v>
+        <v>6.27376716270244</v>
       </c>
       <c r="E17">
-        <v>7.874633148852145</v>
+        <v>7.967298859136664</v>
       </c>
       <c r="F17">
-        <v>24.5820698452507</v>
+        <v>23.64083803019289</v>
       </c>
       <c r="G17">
-        <v>29.1794227518746</v>
+        <v>27.43542575282014</v>
       </c>
       <c r="H17">
-        <v>5.740490616632619</v>
+        <v>5.739005819135603</v>
       </c>
       <c r="J17">
-        <v>10.31215449162505</v>
+        <v>10.20788420677933</v>
       </c>
       <c r="K17">
-        <v>14.88894607627897</v>
+        <v>14.08422372327442</v>
       </c>
       <c r="L17">
-        <v>5.576782326508712</v>
+        <v>11.72989931414687</v>
       </c>
       <c r="M17">
-        <v>13.87299664985206</v>
+        <v>9.237238683180689</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.566907928189034</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.78206652014975</v>
       </c>
       <c r="P17">
-        <v>12.27147954554894</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.18857019225909</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6067156459317</v>
+        <v>15.16324968609149</v>
       </c>
       <c r="C18">
-        <v>9.541251397507997</v>
+        <v>10.20234107050707</v>
       </c>
       <c r="D18">
-        <v>6.488027688512493</v>
+        <v>6.723555308420187</v>
       </c>
       <c r="E18">
-        <v>8.934207903272986</v>
+        <v>9.036642117782376</v>
       </c>
       <c r="F18">
-        <v>25.59618221520278</v>
+        <v>24.63249742229531</v>
       </c>
       <c r="G18">
-        <v>30.38973885628832</v>
+        <v>28.4390754691394</v>
       </c>
       <c r="H18">
-        <v>4.469142826724381</v>
+        <v>4.466541957351356</v>
       </c>
       <c r="J18">
-        <v>10.5533457399937</v>
+        <v>10.49301909975361</v>
       </c>
       <c r="K18">
-        <v>15.29208624231955</v>
+        <v>14.44817479067187</v>
       </c>
       <c r="L18">
-        <v>5.944838197156962</v>
+        <v>12.01154572879887</v>
       </c>
       <c r="M18">
-        <v>13.92261711506937</v>
+        <v>9.498566883522937</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.932359202826584</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.83929050944419</v>
       </c>
       <c r="P18">
-        <v>12.34072016462606</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.23363132624413</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.76880439857717</v>
+        <v>15.28740116855911</v>
       </c>
       <c r="C19">
-        <v>9.919383970726937</v>
+        <v>10.64877582235295</v>
       </c>
       <c r="D19">
-        <v>7.118669517446416</v>
+        <v>7.371068633018661</v>
       </c>
       <c r="E19">
-        <v>10.47025667324881</v>
+        <v>10.58225184475645</v>
       </c>
       <c r="F19">
-        <v>26.99769664553375</v>
+        <v>25.95723249359192</v>
       </c>
       <c r="G19">
-        <v>32.06651009413023</v>
+        <v>29.94894409655712</v>
       </c>
       <c r="H19">
-        <v>2.969832696368691</v>
+        <v>2.972311481875663</v>
       </c>
       <c r="J19">
-        <v>10.86541727023205</v>
+        <v>10.79186299343532</v>
       </c>
       <c r="K19">
-        <v>15.8042647639564</v>
+        <v>14.88505560767384</v>
       </c>
       <c r="L19">
-        <v>6.566426778341773</v>
+        <v>12.33591575177332</v>
       </c>
       <c r="M19">
-        <v>14.1478296300521</v>
+        <v>9.843406187291246</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.547794147786881</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.06020170969535</v>
       </c>
       <c r="P19">
-        <v>12.39944832760136</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.26458058732104</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.41916452639397</v>
+        <v>15.83736510004927</v>
       </c>
       <c r="C20">
-        <v>10.74186179182429</v>
+        <v>11.57274269090649</v>
       </c>
       <c r="D20">
-        <v>8.213924424868614</v>
+        <v>8.51279896844655</v>
       </c>
       <c r="E20">
-        <v>13.10291575934754</v>
+        <v>13.22984864125628</v>
       </c>
       <c r="F20">
-        <v>29.40120839735194</v>
+        <v>28.13826439852561</v>
       </c>
       <c r="G20">
-        <v>34.94833450288252</v>
+        <v>32.76724900333644</v>
       </c>
       <c r="H20">
-        <v>1.965332946303231</v>
+        <v>1.954078206218681</v>
       </c>
       <c r="J20">
-        <v>11.36440297199057</v>
+        <v>11.11057414491705</v>
       </c>
       <c r="K20">
-        <v>16.60307436909863</v>
+        <v>15.50709041935862</v>
       </c>
       <c r="L20">
-        <v>7.766830372700262</v>
+        <v>12.74371342872139</v>
       </c>
       <c r="M20">
-        <v>14.84200333913627</v>
+        <v>10.42635183629911</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.73271981925052</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.71977181223678</v>
       </c>
       <c r="P20">
-        <v>12.41988939267515</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.24216693245155</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.45652007800898</v>
+        <v>16.71547579960838</v>
       </c>
       <c r="C21">
-        <v>11.45770153038867</v>
+        <v>12.19190581869101</v>
       </c>
       <c r="D21">
-        <v>8.719447460793996</v>
+        <v>9.130138863810377</v>
       </c>
       <c r="E21">
-        <v>13.96257005839988</v>
+        <v>14.12049455862638</v>
       </c>
       <c r="F21">
-        <v>30.48781784529412</v>
+        <v>28.70145093855234</v>
       </c>
       <c r="G21">
-        <v>36.30337435965809</v>
+        <v>35.48549018156218</v>
       </c>
       <c r="H21">
-        <v>2.290660699616278</v>
+        <v>2.244660026077224</v>
       </c>
       <c r="J21">
-        <v>11.51283657331114</v>
+        <v>10.30238889337917</v>
       </c>
       <c r="K21">
-        <v>16.78412474193953</v>
+        <v>15.38249795690467</v>
       </c>
       <c r="L21">
-        <v>8.137886861299712</v>
+        <v>12.49644620650195</v>
       </c>
       <c r="M21">
-        <v>15.76637509838969</v>
+        <v>10.59341235079992</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.076070376327902</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.51005002977723</v>
       </c>
       <c r="P21">
-        <v>12.19576907310223</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.0043103292209</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09065128440393</v>
+        <v>17.24852081154269</v>
       </c>
       <c r="C22">
-        <v>11.87824259094755</v>
+        <v>12.53730179129592</v>
       </c>
       <c r="D22">
-        <v>8.993606735689074</v>
+        <v>9.479032875869162</v>
       </c>
       <c r="E22">
-        <v>14.39076776966543</v>
+        <v>14.57031351164617</v>
       </c>
       <c r="F22">
-        <v>31.09559325851697</v>
+        <v>28.95410453251753</v>
       </c>
       <c r="G22">
-        <v>37.07266505762885</v>
+        <v>37.24734302859052</v>
       </c>
       <c r="H22">
-        <v>2.491506215638126</v>
+        <v>2.423477770066482</v>
       </c>
       <c r="J22">
-        <v>11.59218391380136</v>
+        <v>9.744377486501477</v>
       </c>
       <c r="K22">
-        <v>16.87487615658736</v>
+        <v>15.26325536609615</v>
       </c>
       <c r="L22">
-        <v>8.317962096976864</v>
+        <v>12.30948555747904</v>
       </c>
       <c r="M22">
-        <v>16.32656978137987</v>
+        <v>10.68001488200765</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.238418850867605</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.98067449917118</v>
       </c>
       <c r="P22">
-        <v>12.04536106067275</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.84772443565453</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.7547204138481</v>
+        <v>16.97443409827588</v>
       </c>
       <c r="C23">
-        <v>11.65542797453675</v>
+        <v>12.37629895869472</v>
       </c>
       <c r="D23">
-        <v>8.8482275111178</v>
+        <v>9.283778150761608</v>
       </c>
       <c r="E23">
-        <v>14.16364393342792</v>
+        <v>14.32778158986683</v>
       </c>
       <c r="F23">
-        <v>30.77123030033971</v>
+        <v>28.86314227416128</v>
       </c>
       <c r="G23">
-        <v>36.66161022531299</v>
+        <v>36.12871826202091</v>
       </c>
       <c r="H23">
-        <v>2.384653653408964</v>
+        <v>2.329524306528626</v>
       </c>
       <c r="J23">
-        <v>11.54935499668559</v>
+        <v>10.1345660741131</v>
       </c>
       <c r="K23">
-        <v>16.82550281932033</v>
+        <v>15.34961709559159</v>
       </c>
       <c r="L23">
-        <v>8.222290665209112</v>
+        <v>12.4243717102089</v>
       </c>
       <c r="M23">
-        <v>16.02975746272537</v>
+        <v>10.65232313036185</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.153709387365874</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.7436797029522</v>
       </c>
       <c r="P23">
-        <v>12.12553583826104</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.93337624647551</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.42684122705555</v>
+        <v>15.84225376000949</v>
       </c>
       <c r="C24">
-        <v>10.77538668588471</v>
+        <v>11.61359129864306</v>
       </c>
       <c r="D24">
-        <v>8.276929812299194</v>
+        <v>8.576754319106051</v>
       </c>
       <c r="E24">
-        <v>13.27245186509458</v>
+        <v>13.39998918971229</v>
       </c>
       <c r="F24">
-        <v>29.54291519408939</v>
+        <v>28.2753849510292</v>
       </c>
       <c r="G24">
-        <v>35.11574719331167</v>
+        <v>32.90905877239236</v>
       </c>
       <c r="H24">
-        <v>1.972252220500195</v>
+        <v>1.960833927241585</v>
       </c>
       <c r="J24">
-        <v>11.39752208845712</v>
+        <v>11.1481925597248</v>
       </c>
       <c r="K24">
-        <v>16.65867867778248</v>
+        <v>15.5565029280018</v>
       </c>
       <c r="L24">
-        <v>7.850402798284009</v>
+        <v>12.78218447159011</v>
       </c>
       <c r="M24">
-        <v>14.85763477862664</v>
+        <v>10.4625670109869</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.815978468969935</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.73580422323312</v>
       </c>
       <c r="P24">
-        <v>12.43153408218576</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.25022145992465</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87386752909379</v>
+        <v>14.41714794778867</v>
       </c>
       <c r="C25">
-        <v>9.747467124699281</v>
+        <v>10.45888316694208</v>
       </c>
       <c r="D25">
-        <v>7.617025763682833</v>
+        <v>7.879937377000259</v>
       </c>
       <c r="E25">
-        <v>12.2455381576052</v>
+        <v>12.37582306167479</v>
       </c>
       <c r="F25">
-        <v>28.22225697392389</v>
+        <v>27.16132730540788</v>
       </c>
       <c r="G25">
-        <v>33.47605890269958</v>
+        <v>31.42010878057988</v>
       </c>
       <c r="H25">
-        <v>1.612614215630569</v>
+        <v>1.59035884128122</v>
       </c>
       <c r="J25">
-        <v>11.25485446533285</v>
+        <v>11.10218107137768</v>
       </c>
       <c r="K25">
-        <v>16.51908094705988</v>
+        <v>15.55489738605795</v>
       </c>
       <c r="L25">
-        <v>7.429468694463365</v>
+        <v>13.0030317528344</v>
       </c>
       <c r="M25">
-        <v>13.48940777507762</v>
+        <v>10.12253954878416</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.415283624987201</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.41000015283609</v>
       </c>
       <c r="P25">
-        <v>12.76744092630046</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.57078348783359</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
